--- a/TRES_PASSOS.xlsx
+++ b/TRES_PASSOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C421D046-2D1F-4082-BA3F-7A0FEE93E30C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{01211825-49B9-4E83-8972-070D452FA5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1219,7 +1219,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{1D7DA0A3-327F-4156-A2D2-A00A5191E2D6}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{91D24FA0-19CA-4A84-8377-B536444C9102}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1249,10 +1249,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A828F723-8888-4AA0-AA0B-63A2269DA22D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8747832E-A896-4499-B757-119000288020}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1290,7 +1290,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4849EACD-3C97-47CF-821A-30CEF72BB9AA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8931266-6696-4B96-BEBB-714A7CAD37BE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,7 +1353,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90261DD7-CD36-4B25-8201-5D5CD2B0D962}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F657D67-54EF-4E61-B6D1-05A601A20FE4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1372,7 +1372,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79E983D9-21A7-96C4-4E86-4E868F1773CD}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4001DBA-D6D1-9EF7-16AD-0DB129DFB7C2}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1421,7 +1421,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFC0D71D-56DD-62C7-FD39-36EACD603CAA}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9089F8AB-EBDE-7D30-A56D-C5548FD6CE58}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1440,7 +1440,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{318C77F0-AFCB-A0EF-1E47-469DD7A45C43}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3EEC2F-40F7-C8B5-8C4D-D10C17CF81C3}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1471,7 +1471,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E80804-440A-8817-5AC6-E50B9D691772}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D8134BE-B976-AD46-07AD-FB7BDE4FF0D5}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1502,7 +1502,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB426B66-4478-4D97-02DC-981B51638573}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20514325-F683-CAC7-3D01-31D3F9176F99}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1545,7 +1545,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{039E63EE-1B6B-4485-A52D-C3B052475F2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9CE961-3164-4AF6-8DD6-5DD5390182A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +1583,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6C7AE2E-CEAF-4602-B7AD-47C993086966}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E424E09C-D475-4DFB-8328-36C33143DE8A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1626,7 +1626,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E6DD0C3-E97B-40EF-9246-345214894F5A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992657EA-51FF-4F75-95AC-E1D76FB9F54F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1939,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71898023-A57C-44E1-98FC-7710175A2456}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A3542B-096E-480B-959A-DCB83655431B}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>

--- a/TRES_PASSOS.xlsx
+++ b/TRES_PASSOS.xlsx
@@ -8,25 +8,24 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{01211825-49B9-4E83-8972-070D452FA5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{95844141-9FD9-4A0E-8C55-FC87282440E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Paineis DARQ" sheetId="7" r:id="rId1"/>
+    <sheet name="PAINEIS DARQ" sheetId="6" r:id="rId1"/>
     <sheet name="DESFAZIMENTOS" sheetId="1" r:id="rId2"/>
     <sheet name="MATERIAIS-FORNECIDOS" sheetId="2" r:id="rId3"/>
     <sheet name="DATA-LIMITE-REQUISICOES" sheetId="3" r:id="rId4"/>
     <sheet name="CPIP" sheetId="4" r:id="rId5"/>
-    <sheet name="Recolhimento x Eliminacao" sheetId="5" r:id="rId6"/>
-    <sheet name="Desarquivamentos Pendentes" sheetId="6" r:id="rId7"/>
+    <sheet name="RECOLHIMENTO X ELIMINAÇÃO" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="747" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="743" uniqueCount="304">
   <si>
     <t>COMARCA</t>
   </si>
@@ -938,15 +937,6 @@
   </si>
   <si>
     <t>Não finalizou procedimentos de eliminação</t>
-  </si>
-  <si>
-    <t>PEDIDOS PENDENTES</t>
-  </si>
-  <si>
-    <t>%</t>
-  </si>
-  <si>
-    <t>TRÊS PASSOS</t>
   </si>
 </sst>
 </file>
@@ -1132,7 +1122,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1199,27 +1189,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{91D24FA0-19CA-4A84-8377-B536444C9102}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{3FCD4E84-F62D-4B48-919B-B4DCB1C38446}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1249,10 +1224,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8747832E-A896-4499-B757-119000288020}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9CC6B97-5AA8-45E8-9441-1FFF943DE3B5}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1290,7 +1265,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8931266-6696-4B96-BEBB-714A7CAD37BE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89E297AD-C303-4E9B-BB16-CAE0935BF8F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1353,7 +1328,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F657D67-54EF-4E61-B6D1-05A601A20FE4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D1B79E-731C-4A6E-A1C9-57B7EBA6C1A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1372,7 +1347,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4001DBA-D6D1-9EF7-16AD-0DB129DFB7C2}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1165A26E-CD09-FC7E-0D0E-E921B3E2601B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1421,7 +1396,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9089F8AB-EBDE-7D30-A56D-C5548FD6CE58}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B33F811D-D002-2C4B-7B85-36225002FE0F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1440,7 +1415,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D3EEC2F-40F7-C8B5-8C4D-D10C17CF81C3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{581C8E7A-A67C-2F83-AA4E-38D734333B46}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1471,7 +1446,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D8134BE-B976-AD46-07AD-FB7BDE4FF0D5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{675BE6EA-0384-F205-DF33-1A61CDB0316F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1502,7 +1477,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20514325-F683-CAC7-3D01-31D3F9176F99}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBD870A1-76BD-422C-2C3C-DEC9AE7B76F9}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1545,7 +1520,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F9CE961-3164-4AF6-8DD6-5DD5390182A6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3D61F2-A5F4-447A-97B2-76660DF67D14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,7 +1558,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E424E09C-D475-4DFB-8328-36C33143DE8A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C831BF83-D344-4C7A-8D3E-71A7EC9DA94E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1626,7 +1601,7 @@
         <xdr:cNvPr id="12" name="Imagem 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{992657EA-51FF-4F75-95AC-E1D76FB9F54F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D45B706-BC0A-41B1-9DC0-40F3D4F8957E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1939,7 +1914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F3A3542B-096E-480B-959A-DCB83655431B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE4BB0F-91F4-4D43-A4A7-59D799BE4BC7}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
@@ -1951,98 +1926,98 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="12.5703125" style="34"/>
-    <col min="6" max="6" width="2" style="34" customWidth="1"/>
-    <col min="7" max="16" width="13.42578125" style="34" customWidth="1"/>
-    <col min="17" max="16384" width="12.5703125" style="34"/>
+    <col min="1" max="5" width="12.5703125" style="29"/>
+    <col min="6" max="6" width="2" style="29" customWidth="1"/>
+    <col min="7" max="16" width="13.42578125" style="29" customWidth="1"/>
+    <col min="17" max="16384" width="12.5703125" style="29"/>
   </cols>
   <sheetData>
     <row r="1" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F1" s="33"/>
+      <c r="F1" s="28"/>
     </row>
     <row r="2" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F2" s="33"/>
+      <c r="F2" s="28"/>
     </row>
     <row r="3" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F3" s="33"/>
+      <c r="F3" s="28"/>
     </row>
     <row r="4" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F4" s="33"/>
+      <c r="F4" s="28"/>
     </row>
     <row r="5" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F5" s="33"/>
+      <c r="F5" s="28"/>
     </row>
     <row r="6" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F6" s="33"/>
+      <c r="F6" s="28"/>
     </row>
     <row r="7" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F7" s="33"/>
+      <c r="F7" s="28"/>
     </row>
     <row r="8" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F8" s="33"/>
+      <c r="F8" s="28"/>
     </row>
     <row r="9" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F9" s="33"/>
+      <c r="F9" s="28"/>
     </row>
     <row r="10" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F10" s="33"/>
+      <c r="F10" s="28"/>
     </row>
     <row r="11" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F11" s="33"/>
+      <c r="F11" s="28"/>
     </row>
     <row r="12" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F12" s="33"/>
+      <c r="F12" s="28"/>
     </row>
     <row r="13" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F13" s="33"/>
+      <c r="F13" s="28"/>
     </row>
     <row r="14" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F14" s="33"/>
+      <c r="F14" s="28"/>
     </row>
     <row r="15" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F15" s="33"/>
+      <c r="F15" s="28"/>
     </row>
     <row r="16" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F16" s="33"/>
+      <c r="F16" s="28"/>
     </row>
     <row r="17" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F17" s="33"/>
+      <c r="F17" s="28"/>
     </row>
     <row r="18" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F18" s="33"/>
+      <c r="F18" s="28"/>
     </row>
     <row r="19" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F19" s="33"/>
+      <c r="F19" s="28"/>
     </row>
     <row r="20" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F20" s="33"/>
+      <c r="F20" s="28"/>
     </row>
     <row r="21" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F21" s="33"/>
+      <c r="F21" s="28"/>
     </row>
     <row r="22" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F22" s="33"/>
+      <c r="F22" s="28"/>
     </row>
     <row r="23" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F23" s="33"/>
+      <c r="F23" s="28"/>
     </row>
     <row r="24" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F24" s="33"/>
+      <c r="F24" s="28"/>
     </row>
     <row r="25" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F25" s="33"/>
+      <c r="F25" s="28"/>
     </row>
     <row r="26" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F26" s="33"/>
+      <c r="F26" s="28"/>
     </row>
     <row r="27" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F27" s="33"/>
+      <c r="F27" s="28"/>
     </row>
     <row r="28" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F28" s="33"/>
+      <c r="F28" s="28"/>
     </row>
     <row r="29" spans="6:6" x14ac:dyDescent="0.2">
-      <c r="F29" s="33"/>
+      <c r="F29" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0" footer="0"/>
@@ -5569,52 +5544,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1"/>
-    <col min="5" max="6" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>305</v>
-      </c>
-      <c r="E1" s="29">
-        <v>15072</v>
-      </c>
-      <c r="F1" s="30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
-        <v>306</v>
-      </c>
-      <c r="B2" s="32">
-        <v>86</v>
-      </c>
-      <c r="C2" s="30">
-        <v>5.687078428779262E-3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/TRES_PASSOS.xlsx
+++ b/TRES_PASSOS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gera-fichas\Comarcas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{95844141-9FD9-4A0E-8C55-FC87282440E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{71D562F4-0828-4DFC-B2B4-7746FA59836B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1194,7 +1194,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="1" xr:uid="{3FCD4E84-F62D-4B48-919B-B4DCB1C38446}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{FC18E322-CCEC-421A-9A39-FAEEDEBD0097}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -1224,10 +1224,10 @@
         <xdr:cNvPr id="2" name="Chart1" title="Gráfico">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9CC6B97-5AA8-45E8-9441-1FFF943DE3B5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADF2BF55-88E9-40F8-8B26-5B2390EF139B}"/>
             </a:ext>
             <a:ext uri="GoogleSheetsCustomDataVersion1">
-              <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="" pictureOfChart="1"/>
+              <go:sheetsCustomData xmlns="" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer" xmlns:go="http://customooxmlschemas.google.com/" pictureOfChart="1"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1265,7 +1265,7 @@
         <xdr:cNvPr id="3" name="Shape 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89E297AD-C303-4E9B-BB16-CAE0935BF8F0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{088587F5-566E-4C94-BE4C-EA376399A6D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1328,7 +1328,7 @@
         <xdr:cNvPr id="4" name="Shape 2" title="Desenho">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09D1B79E-731C-4A6E-A1C9-57B7EBA6C1A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2131ABAA-54B8-42FB-B450-DB58176EDC1E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1347,7 +1347,7 @@
           <xdr:cNvPr id="5" name="Shape 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1165A26E-CD09-FC7E-0D0E-E921B3E2601B}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61A4E8AA-8A2E-5E76-859A-044BFCDFE9B0}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1396,7 +1396,7 @@
           <xdr:cNvPr id="6" name="Shape 5">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B33F811D-D002-2C4B-7B85-36225002FE0F}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{54B43FD1-EC26-E9D2-C282-75795DEE9C8C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -1415,7 +1415,7 @@
             <xdr:cNvPr id="7" name="Shape 6">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{581C8E7A-A67C-2F83-AA4E-38D734333B46}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{757299A9-E934-C9D5-F5D2-2C73F8DF441B}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1446,7 +1446,7 @@
             <xdr:cNvPr id="8" name="Shape 7">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{675BE6EA-0384-F205-DF33-1A61CDB0316F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38C3956A-76E0-BB54-93A0-5A31BA3DA530}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1477,7 +1477,7 @@
             <xdr:cNvPr id="9" name="Shape 8">
               <a:extLst>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBD870A1-76BD-422C-2C3C-DEC9AE7B76F9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE0B54F9-02CA-EB87-A4BE-E442ED9AC664}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1520,7 +1520,7 @@
         <xdr:cNvPr id="10" name="image2.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C3D61F2-A5F4-447A-97B2-76660DF67D14}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EF82509-1BEA-42DF-A26E-74FDF679DCE8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1558,7 +1558,7 @@
         <xdr:cNvPr id="11" name="image1.png" title="Imagem">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C831BF83-D344-4C7A-8D3E-71A7EC9DA94E}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30845206-69B8-498F-8755-6555B9A5AB2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1583,50 +1583,6 @@
     </xdr:pic>
     <xdr:clientData fLocksWithSheet="0"/>
   </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>315640</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>143650</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Imagem 11">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9D45B706-BC0A-41B1-9DC0-40F3D4F8957E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1485900" y="6219825"/>
-          <a:ext cx="9421540" cy="4525150"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1914,7 +1870,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE4BB0F-91F4-4D43-A4A7-59D799BE4BC7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{076A0AB3-F2A4-4E11-AA01-D094FD8E1156}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
